--- a/egfr_excel.xlsx
+++ b/egfr_excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsugie/test/egfr_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6ECD8-0777-484B-9BDF-4E709FF82C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F0A0B-EA3E-0849-90C7-21453DC9ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="13760" windowWidth="21940" windowHeight="9580" xr2:uid="{4476F0AA-F90D-7B4E-A30F-C1AC36AEFF70}"/>
   </bookViews>
   <sheets>
     <sheet name="CRE to eGFR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>194*POWER(B2,-1.094)*POWER(A2,-0.287)</f>
+        <f>194*POWER(B2,-1.094)*POWER(A2,-0.287)*IF(C2=2,0.739,1)</f>
         <v>85.835159694629525</v>
       </c>
     </row>
